--- a/audio_files.xlsx
+++ b/audio_files.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Filename</t>
   </si>
@@ -139,6 +139,25 @@
   </si>
   <si>
     <t>school_intro.mp3</t>
+  </si>
+  <si>
+    <t>ji_bilkul.mp3</t>
+  </si>
+  <si>
+    <t>Ji Bilkul</t>
+  </si>
+  <si>
+    <t>nisha_intro.mp3</t>
+  </si>
+  <si>
+    <t>Namaste! AVS International School se mai Nisha bol rahi hu.</t>
+  </si>
+  <si>
+    <t>thank_you_goodbye.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofcourse! कभी भी आपको कोई aur doubt हो या सवाल हो तो कॉल कर लीजिएगा। Thank you for calling AVS International.
+</t>
   </si>
 </sst>
 </file>
@@ -747,7 +766,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -933,20 +952,32 @@
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:4" ht="51.75" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="6"/>
     </row>
